--- a/Software_Task_Tracker.xlsx
+++ b/Software_Task_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\StaffSync\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280C397F-A465-4EB5-A459-41CE226BC1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C62B1F-2C9D-4F53-8E1B-2F2F11706DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>Task</t>
   </si>
@@ -74,6 +74,20 @@
   </si>
   <si>
     <t>Employee Self Service - Menu</t>
+  </si>
+  <si>
+    <t>Options Title - Added on "Dashboard"
+Tested for the same
+Confirmed worked as expected</t>
+  </si>
+  <si>
+    <t>2h 30m</t>
+  </si>
+  <si>
+    <t>Need to start</t>
+  </si>
+  <si>
+    <t>Add all associated menus with respect to only ESS</t>
   </si>
 </sst>
 </file>
@@ -450,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +478,7 @@
     <col min="4" max="4" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" style="2" customWidth="1"/>
     <col min="8" max="16384" width="36" style="2"/>
   </cols>
   <sheetData>
@@ -574,12 +588,67 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>45944</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Software_Task_Tracker.xlsx
+++ b/Software_Task_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\StaffSync\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C62B1F-2C9D-4F53-8E1B-2F2F11706DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D036A98-728E-49CB-9516-72AC0BA82831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>Task</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>Add all associated menus with respect to only ESS</t>
+  </si>
+  <si>
+    <t>Jobs - Read All Employees List</t>
+  </si>
+  <si>
+    <t>1h 00m</t>
+  </si>
+  <si>
+    <t>Console</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
@@ -114,12 +126,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -149,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -158,6 +188,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -464,22 +503,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="36" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57" style="2" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="36" style="2"/>
+    <col min="7" max="7" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="15.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -524,7 +563,7 @@
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -544,7 +583,7 @@
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -564,11 +603,11 @@
       <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>4</v>
       </c>
@@ -584,7 +623,7 @@
       <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -604,7 +643,7 @@
       <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -624,31 +663,37 @@
       <c r="E7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>45945</v>
+      </c>
       <c r="B9" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Software_Task_Tracker.xlsx
+++ b/Software_Task_Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\StaffSync\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D036A98-728E-49CB-9516-72AC0BA82831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE592D6B-4926-4542-8BED-35654275BD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>Task</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>In Progress</t>
+  </si>
+  <si>
+    <t>Get Leave Information Of the Employees</t>
   </si>
 </sst>
 </file>
@@ -503,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +695,27 @@
       <c r="E9" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="G9" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>24</v>
       </c>
     </row>
